--- a/matlab/statistics/rawdataAnovaDistThresholdWithout9Sub.xlsx
+++ b/matlab/statistics/rawdataAnovaDistThresholdWithout9Sub.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE342E-AA1B-4A24-9D7E-95518E04ABE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B37BADB-B155-4F8D-B306-EDBAC4ADB313}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="73to76" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -376,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:XFD116"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="2">
-        <v>174.8998</v>
+        <v>173.024</v>
       </c>
       <c r="G2" s="2">
-        <v>174.8998</v>
+        <v>173.024</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -453,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="2">
-        <v>170.8417</v>
+        <v>169.8724</v>
       </c>
       <c r="G3" s="2">
-        <v>170.8417</v>
+        <v>169.8724</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -476,10 +477,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>160.92179999999999</v>
+        <v>160.08000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>160.92179999999999</v>
+        <v>160.08000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -499,10 +500,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>173.09620000000001</v>
+        <v>170.66030000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>173.09620000000001</v>
+        <v>170.66030000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -522,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>188.42689999999999</v>
+        <v>186.86840000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>188.42689999999999</v>
+        <v>186.86840000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -545,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="2">
-        <v>169.03809999999999</v>
+        <v>167.62129999999999</v>
       </c>
       <c r="G7" s="2">
-        <v>169.03809999999999</v>
+        <v>167.62129999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -568,10 +569,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>119.88979999999999</v>
+        <v>116.52079999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>119.88979999999999</v>
+        <v>116.52079999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -591,10 +592,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>172.64529999999999</v>
+        <v>170.77289999999999</v>
       </c>
       <c r="G9" s="2">
-        <v>172.64529999999999</v>
+        <v>170.77289999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -637,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="2">
-        <v>171.74350000000001</v>
+        <v>169.98500000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>171.74350000000001</v>
+        <v>169.98500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -660,10 +661,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="2">
-        <v>72.094200000000001</v>
+        <v>70.034999999999997</v>
       </c>
       <c r="G12" s="2">
-        <v>72.094200000000001</v>
+        <v>70.034999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -683,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="2">
-        <v>159.1182</v>
+        <v>158.39169999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>159.1182</v>
+        <v>158.39169999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -706,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="2">
-        <v>145.59119999999999</v>
+        <v>143.5343</v>
       </c>
       <c r="G14" s="2">
-        <v>145.59119999999999</v>
+        <v>143.5343</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -729,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>147.84569999999999</v>
+        <v>146.57329999999999</v>
       </c>
       <c r="G15" s="2">
-        <v>147.84569999999999</v>
+        <v>146.57329999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -752,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="F16" s="2">
-        <v>144.68940000000001</v>
+        <v>143.19659999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>144.68940000000001</v>
+        <v>143.19659999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -775,10 +776,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>130.7114</v>
+        <v>126.6508</v>
       </c>
       <c r="G17" s="2">
-        <v>130.7114</v>
+        <v>126.6508</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -798,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="F18" s="2">
-        <v>178.9579</v>
+        <v>177.18860000000001</v>
       </c>
       <c r="G18" s="2">
-        <v>178.9579</v>
+        <v>177.18860000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -821,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="F19" s="2">
-        <v>136.57310000000001</v>
+        <v>132.95400000000001</v>
       </c>
       <c r="G19" s="2">
-        <v>136.57310000000001</v>
+        <v>132.95400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -844,10 +845,10 @@
         <v>5</v>
       </c>
       <c r="F20" s="2">
-        <v>181.66329999999999</v>
+        <v>180.11510000000001</v>
       </c>
       <c r="G20" s="2">
-        <v>181.66329999999999</v>
+        <v>180.11510000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -867,10 +868,10 @@
         <v>50</v>
       </c>
       <c r="F21" s="2">
-        <v>165.43090000000001</v>
+        <v>164.46969999999999</v>
       </c>
       <c r="G21" s="2">
-        <v>165.43090000000001</v>
+        <v>164.46969999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -890,10 +891,10 @@
         <v>50</v>
       </c>
       <c r="F22" s="2">
-        <v>173.09620000000001</v>
+        <v>171.5608</v>
       </c>
       <c r="G22" s="2">
-        <v>173.09620000000001</v>
+        <v>171.5608</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -913,10 +914,10 @@
         <v>50</v>
       </c>
       <c r="F23" s="2">
-        <v>171.74350000000001</v>
+        <v>170.5478</v>
       </c>
       <c r="G23" s="2">
-        <v>171.74350000000001</v>
+        <v>170.5478</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -936,10 +937,10 @@
         <v>50</v>
       </c>
       <c r="F24" s="2">
-        <v>169.93989999999999</v>
+        <v>168.4092</v>
       </c>
       <c r="G24" s="2">
-        <v>169.93989999999999</v>
+        <v>168.4092</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -959,10 +960,10 @@
         <v>50</v>
       </c>
       <c r="F25" s="2">
-        <v>174.8998</v>
+        <v>173.4742</v>
       </c>
       <c r="G25" s="2">
-        <v>174.8998</v>
+        <v>173.4742</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -982,10 +983,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="2">
-        <v>175.80160000000001</v>
+        <v>173.69929999999999</v>
       </c>
       <c r="G26" s="2">
-        <v>175.80160000000001</v>
+        <v>173.69929999999999</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1005,10 +1006,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="2">
-        <v>224.499</v>
+        <v>221.76089999999999</v>
       </c>
       <c r="G27" s="2">
-        <v>224.499</v>
+        <v>221.76089999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1028,10 +1029,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="2">
-        <v>147.84569999999999</v>
+        <v>147.02350000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>147.84569999999999</v>
+        <v>147.02350000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1051,10 +1052,10 @@
         <v>50</v>
       </c>
       <c r="F29" s="2">
-        <v>121.6934</v>
+        <v>116.0705</v>
       </c>
       <c r="G29" s="2">
-        <v>121.6934</v>
+        <v>116.0705</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1074,10 +1075,10 @@
         <v>50</v>
       </c>
       <c r="F30" s="2">
-        <v>176.2525</v>
+        <v>174.9375</v>
       </c>
       <c r="G30" s="2">
-        <v>176.2525</v>
+        <v>174.9375</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1097,10 +1098,10 @@
         <v>50</v>
       </c>
       <c r="F31" s="2">
-        <v>193.83770000000001</v>
+        <v>191.3707</v>
       </c>
       <c r="G31" s="2">
-        <v>193.83770000000001</v>
+        <v>191.3707</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1120,10 +1121,10 @@
         <v>50</v>
       </c>
       <c r="F32" s="2">
-        <v>198.3467</v>
+        <v>196.2106</v>
       </c>
       <c r="G32" s="2">
-        <v>198.3467</v>
+        <v>196.2106</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1143,10 +1144,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="2">
-        <v>173.5471</v>
+        <v>171.89840000000001</v>
       </c>
       <c r="G33" s="2">
-        <v>173.5471</v>
+        <v>171.89840000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1166,10 +1167,10 @@
         <v>50</v>
       </c>
       <c r="F34" s="2">
-        <v>196.09219999999999</v>
+        <v>194.18459999999999</v>
       </c>
       <c r="G34" s="2">
-        <v>196.09219999999999</v>
+        <v>194.18459999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1189,10 +1190,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="2">
-        <v>178.05609999999999</v>
+        <v>176.6258</v>
       </c>
       <c r="G35" s="2">
-        <v>178.05609999999999</v>
+        <v>176.6258</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1212,10 +1213,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="2">
-        <v>194.2886</v>
+        <v>191.1456</v>
       </c>
       <c r="G36" s="2">
-        <v>194.2886</v>
+        <v>191.1456</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1235,10 +1236,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="2">
-        <v>160.4709</v>
+        <v>158.7294</v>
       </c>
       <c r="G37" s="2">
-        <v>160.4709</v>
+        <v>158.7294</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1258,10 +1259,10 @@
         <v>50</v>
       </c>
       <c r="F38" s="2">
-        <v>134.76949999999999</v>
+        <v>131.82839999999999</v>
       </c>
       <c r="G38" s="2">
-        <v>134.76949999999999</v>
+        <v>131.82839999999999</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1281,10 +1282,10 @@
         <v>50</v>
       </c>
       <c r="F39" s="2">
-        <v>202.40479999999999</v>
+        <v>200.37520000000001</v>
       </c>
       <c r="G39" s="2">
-        <v>202.40479999999999</v>
+        <v>200.37520000000001</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1304,10 +1305,10 @@
         <v>500</v>
       </c>
       <c r="F40" s="2">
-        <v>172.1944</v>
+        <v>171.11060000000001</v>
       </c>
       <c r="G40" s="2">
-        <v>172.1944</v>
+        <v>171.11060000000001</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1327,10 +1328,10 @@
         <v>500</v>
       </c>
       <c r="F41" s="2">
-        <v>202.40479999999999</v>
+        <v>199.47470000000001</v>
       </c>
       <c r="G41" s="2">
-        <v>202.40479999999999</v>
+        <v>199.47470000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1350,10 +1351,10 @@
         <v>500</v>
       </c>
       <c r="F42" s="2">
-        <v>198.3467</v>
+        <v>193.62180000000001</v>
       </c>
       <c r="G42" s="2">
-        <v>198.3467</v>
+        <v>193.62180000000001</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1373,10 +1374,10 @@
         <v>500</v>
       </c>
       <c r="F43" s="2">
-        <v>182.5651</v>
+        <v>181.2406</v>
       </c>
       <c r="G43" s="2">
-        <v>182.5651</v>
+        <v>181.2406</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1396,10 +1397,10 @@
         <v>500</v>
       </c>
       <c r="F44" s="2">
-        <v>188.87780000000001</v>
+        <v>187.20609999999999</v>
       </c>
       <c r="G44" s="2">
-        <v>188.87780000000001</v>
+        <v>187.20609999999999</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1419,10 +1420,10 @@
         <v>500</v>
       </c>
       <c r="F45" s="2">
-        <v>209.61920000000001</v>
+        <v>206.67830000000001</v>
       </c>
       <c r="G45" s="2">
-        <v>209.61920000000001</v>
+        <v>206.67830000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1442,10 +1443,10 @@
         <v>500</v>
       </c>
       <c r="F46" s="2">
-        <v>196.09219999999999</v>
+        <v>193.84690000000001</v>
       </c>
       <c r="G46" s="2">
-        <v>196.09219999999999</v>
+        <v>193.84690000000001</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1465,10 +1466,10 @@
         <v>500</v>
       </c>
       <c r="F47" s="2">
-        <v>146.0421</v>
+        <v>142.63380000000001</v>
       </c>
       <c r="G47" s="2">
-        <v>146.0421</v>
+        <v>142.63380000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1488,10 +1489,10 @@
         <v>500</v>
       </c>
       <c r="F48" s="2">
-        <v>192.0341</v>
+        <v>190.02</v>
       </c>
       <c r="G48" s="2">
-        <v>192.0341</v>
+        <v>190.02</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1511,10 +1512,10 @@
         <v>500</v>
       </c>
       <c r="F49" s="2">
-        <v>169.93989999999999</v>
+        <v>168.6343</v>
       </c>
       <c r="G49" s="2">
-        <v>169.93989999999999</v>
+        <v>168.6343</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1534,10 +1535,10 @@
         <v>500</v>
       </c>
       <c r="F50" s="2">
-        <v>167.68539999999999</v>
+        <v>166.4957</v>
       </c>
       <c r="G50" s="2">
-        <v>167.68539999999999</v>
+        <v>166.4957</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1557,10 +1558,10 @@
         <v>500</v>
       </c>
       <c r="F51" s="2">
-        <v>166.78360000000001</v>
+        <v>164.92</v>
       </c>
       <c r="G51" s="2">
-        <v>166.78360000000001</v>
+        <v>164.92</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -1580,10 +1581,10 @@
         <v>500</v>
       </c>
       <c r="F52" s="2">
-        <v>169.03809999999999</v>
+        <v>167.28360000000001</v>
       </c>
       <c r="G52" s="2">
-        <v>169.03809999999999</v>
+        <v>167.28360000000001</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -1603,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="F53" s="2">
-        <v>208.7174</v>
+        <v>205.8904</v>
       </c>
       <c r="G53" s="2">
-        <v>208.7174</v>
+        <v>205.8904</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -1626,10 +1627,10 @@
         <v>500</v>
       </c>
       <c r="F54" s="2">
-        <v>151.4529</v>
+        <v>150.62530000000001</v>
       </c>
       <c r="G54" s="2">
-        <v>151.4529</v>
+        <v>150.62530000000001</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -1649,10 +1650,10 @@
         <v>500</v>
       </c>
       <c r="F55" s="2">
-        <v>200.15029999999999</v>
+        <v>197.56129999999999</v>
       </c>
       <c r="G55" s="2">
-        <v>200.15029999999999</v>
+        <v>197.56129999999999</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1672,10 +1673,10 @@
         <v>500</v>
       </c>
       <c r="F56" s="2">
-        <v>169.489</v>
+        <v>167.28360000000001</v>
       </c>
       <c r="G56" s="2">
-        <v>169.489</v>
+        <v>167.28360000000001</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -1695,10 +1696,10 @@
         <v>500</v>
       </c>
       <c r="F57" s="2">
-        <v>198.79759999999999</v>
+        <v>196.99850000000001</v>
       </c>
       <c r="G57" s="2">
-        <v>198.79759999999999</v>
+        <v>196.99850000000001</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -1718,10 +1719,10 @@
         <v>500</v>
       </c>
       <c r="F58" s="2">
-        <v>210.0701</v>
+        <v>207.8039</v>
       </c>
       <c r="G58" s="2">
-        <v>210.0701</v>
+        <v>207.8039</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -1741,10 +1742,10 @@
         <v>5</v>
       </c>
       <c r="F59" s="2">
-        <v>168.5872</v>
+        <v>167.1711</v>
       </c>
       <c r="G59" s="2">
-        <v>168.5872</v>
+        <v>167.1711</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1764,10 +1765,10 @@
         <v>5</v>
       </c>
       <c r="F60" s="2">
-        <v>167.2345</v>
+        <v>165.82040000000001</v>
       </c>
       <c r="G60" s="2">
-        <v>167.2345</v>
+        <v>165.82040000000001</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -1787,10 +1788,10 @@
         <v>5</v>
       </c>
       <c r="F61" s="2">
-        <v>173.99799999999999</v>
+        <v>172.7989</v>
       </c>
       <c r="G61" s="2">
-        <v>173.99799999999999</v>
+        <v>172.7989</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -1810,10 +1811,10 @@
         <v>5</v>
       </c>
       <c r="F62" s="2">
-        <v>207.3647</v>
+        <v>205.4402</v>
       </c>
       <c r="G62" s="2">
-        <v>207.3647</v>
+        <v>205.4402</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -1833,10 +1834,10 @@
         <v>5</v>
       </c>
       <c r="F63" s="2">
-        <v>163.1764</v>
+        <v>162.44370000000001</v>
       </c>
       <c r="G63" s="2">
-        <v>163.1764</v>
+        <v>162.44370000000001</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -1856,10 +1857,10 @@
         <v>5</v>
       </c>
       <c r="F64" s="2">
-        <v>213.22649999999999</v>
+        <v>210.7304</v>
       </c>
       <c r="G64" s="2">
-        <v>213.22649999999999</v>
+        <v>210.7304</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -1879,10 +1880,10 @@
         <v>5</v>
       </c>
       <c r="F65" s="2">
-        <v>216.3828</v>
+        <v>213.6568</v>
       </c>
       <c r="G65" s="2">
-        <v>216.3828</v>
+        <v>213.6568</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -1902,10 +1903,10 @@
         <v>5</v>
       </c>
       <c r="F66" s="2">
-        <v>173.99799999999999</v>
+        <v>172.57380000000001</v>
       </c>
       <c r="G66" s="2">
-        <v>173.99799999999999</v>
+        <v>172.57380000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -1948,10 +1949,10 @@
         <v>5</v>
       </c>
       <c r="F68" s="2">
-        <v>184.81960000000001</v>
+        <v>181.57830000000001</v>
       </c>
       <c r="G68" s="2">
-        <v>184.81960000000001</v>
+        <v>181.57830000000001</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -1971,10 +1972,10 @@
         <v>5</v>
       </c>
       <c r="F69" s="2">
-        <v>153.25649999999999</v>
+        <v>151.7509</v>
       </c>
       <c r="G69" s="2">
-        <v>153.25649999999999</v>
+        <v>151.7509</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -1994,10 +1995,10 @@
         <v>5</v>
       </c>
       <c r="F70" s="2">
-        <v>187.976</v>
+        <v>185.74289999999999</v>
       </c>
       <c r="G70" s="2">
-        <v>187.976</v>
+        <v>185.74289999999999</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2017,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="F71" s="2">
-        <v>182.5651</v>
+        <v>180.67779999999999</v>
       </c>
       <c r="G71" s="2">
-        <v>182.5651</v>
+        <v>180.67779999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2040,10 +2041,10 @@
         <v>5</v>
       </c>
       <c r="F72" s="2">
-        <v>144.23849999999999</v>
+        <v>142.18360000000001</v>
       </c>
       <c r="G72" s="2">
-        <v>144.23849999999999</v>
+        <v>142.18360000000001</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2063,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="F73" s="2">
-        <v>211.87370000000001</v>
+        <v>209.4922</v>
       </c>
       <c r="G73" s="2">
-        <v>211.87370000000001</v>
+        <v>209.4922</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2132,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="F76" s="2">
-        <v>88.326700000000002</v>
+        <v>84.667299999999997</v>
       </c>
       <c r="G76" s="2">
-        <v>88.326700000000002</v>
+        <v>84.667299999999997</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2155,10 +2156,10 @@
         <v>5</v>
       </c>
       <c r="F77" s="2">
-        <v>160.92179999999999</v>
+        <v>159.51730000000001</v>
       </c>
       <c r="G77" s="2">
-        <v>160.92179999999999</v>
+        <v>159.51730000000001</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2178,10 +2179,10 @@
         <v>50</v>
       </c>
       <c r="F78" s="2">
-        <v>209.16829999999999</v>
+        <v>206.90350000000001</v>
       </c>
       <c r="G78" s="2">
-        <v>209.16829999999999</v>
+        <v>206.90350000000001</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2201,10 +2202,10 @@
         <v>50</v>
       </c>
       <c r="F79" s="2">
-        <v>178.9579</v>
+        <v>177.52629999999999</v>
       </c>
       <c r="G79" s="2">
-        <v>178.9579</v>
+        <v>177.52629999999999</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2224,10 +2225,10 @@
         <v>50</v>
       </c>
       <c r="F80" s="2">
-        <v>184.36869999999999</v>
+        <v>182.81639999999999</v>
       </c>
       <c r="G80" s="2">
-        <v>184.36869999999999</v>
+        <v>182.81639999999999</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -2247,10 +2248,10 @@
         <v>50</v>
       </c>
       <c r="F81" s="2">
-        <v>265.53109999999998</v>
+        <v>263.51929999999999</v>
       </c>
       <c r="G81" s="2">
-        <v>265.53109999999998</v>
+        <v>263.51929999999999</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -2270,10 +2271,10 @@
         <v>50</v>
       </c>
       <c r="F82" s="2">
-        <v>175.35069999999999</v>
+        <v>173.81190000000001</v>
       </c>
       <c r="G82" s="2">
-        <v>175.35069999999999</v>
+        <v>173.81190000000001</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -2293,10 +2294,10 @@
         <v>50</v>
       </c>
       <c r="F83" s="2">
-        <v>224.04810000000001</v>
+        <v>221.98599999999999</v>
       </c>
       <c r="G83" s="2">
-        <v>224.04810000000001</v>
+        <v>221.98599999999999</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2316,10 +2317,10 @@
         <v>50</v>
       </c>
       <c r="F84" s="2">
-        <v>238.92789999999999</v>
+        <v>237.63130000000001</v>
       </c>
       <c r="G84" s="2">
-        <v>238.92789999999999</v>
+        <v>237.63130000000001</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -2339,10 +2340,10 @@
         <v>50</v>
       </c>
       <c r="F85" s="2">
-        <v>170.39080000000001</v>
+        <v>168.74690000000001</v>
       </c>
       <c r="G85" s="2">
-        <v>170.39080000000001</v>
+        <v>168.74690000000001</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -2362,10 +2363,10 @@
         <v>50</v>
       </c>
       <c r="F86" s="2">
-        <v>91.933899999999994</v>
+        <v>89.732399999999998</v>
       </c>
       <c r="G86" s="2">
-        <v>91.933899999999994</v>
+        <v>89.732399999999998</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -2385,10 +2386,10 @@
         <v>50</v>
       </c>
       <c r="F87" s="2">
-        <v>192.0341</v>
+        <v>190.1326</v>
       </c>
       <c r="G87" s="2">
-        <v>192.0341</v>
+        <v>190.1326</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -2408,10 +2409,10 @@
         <v>50</v>
       </c>
       <c r="F88" s="2">
-        <v>138.82769999999999</v>
+        <v>137.2311</v>
       </c>
       <c r="G88" s="2">
-        <v>138.82769999999999</v>
+        <v>137.2311</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -2431,10 +2432,10 @@
         <v>50</v>
       </c>
       <c r="F89" s="2">
-        <v>216.83369999999999</v>
+        <v>215.00749999999999</v>
       </c>
       <c r="G89" s="2">
-        <v>216.83369999999999</v>
+        <v>215.00749999999999</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -2454,10 +2455,10 @@
         <v>50</v>
       </c>
       <c r="F90" s="2">
-        <v>205.11019999999999</v>
+        <v>202.85140000000001</v>
       </c>
       <c r="G90" s="2">
-        <v>205.11019999999999</v>
+        <v>202.85140000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -2477,10 +2478,10 @@
         <v>50</v>
       </c>
       <c r="F91" s="2">
-        <v>153.70740000000001</v>
+        <v>151.976</v>
       </c>
       <c r="G91" s="2">
-        <v>153.70740000000001</v>
+        <v>151.976</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -2500,10 +2501,10 @@
         <v>50</v>
       </c>
       <c r="F92" s="2">
-        <v>233.96789999999999</v>
+        <v>231.7784</v>
       </c>
       <c r="G92" s="2">
-        <v>233.96789999999999</v>
+        <v>231.7784</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -2523,10 +2524,10 @@
         <v>50</v>
       </c>
       <c r="F93" s="2">
-        <v>99.148300000000006</v>
+        <v>94.009500000000003</v>
       </c>
       <c r="G93" s="2">
-        <v>99.148300000000006</v>
+        <v>94.009500000000003</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -2546,10 +2547,10 @@
         <v>50</v>
       </c>
       <c r="F94" s="2">
-        <v>170.8417</v>
+        <v>168.1841</v>
       </c>
       <c r="G94" s="2">
-        <v>170.8417</v>
+        <v>168.1841</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -2569,10 +2570,10 @@
         <v>50</v>
       </c>
       <c r="F95" s="2">
-        <v>127.5551</v>
+        <v>125.9755</v>
       </c>
       <c r="G95" s="2">
-        <v>127.5551</v>
+        <v>125.9755</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -2592,10 +2593,10 @@
         <v>50</v>
       </c>
       <c r="F96" s="2">
-        <v>165.43090000000001</v>
+        <v>163.45670000000001</v>
       </c>
       <c r="G96" s="2">
-        <v>165.43090000000001</v>
+        <v>163.45670000000001</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -2615,10 +2616,10 @@
         <v>500</v>
       </c>
       <c r="F97" s="2">
-        <v>224.04810000000001</v>
+        <v>221.64830000000001</v>
       </c>
       <c r="G97" s="2">
-        <v>224.04810000000001</v>
+        <v>221.64830000000001</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -2638,10 +2639,10 @@
         <v>500</v>
       </c>
       <c r="F98" s="2">
-        <v>266.88380000000001</v>
+        <v>265.3202</v>
       </c>
       <c r="G98" s="2">
-        <v>266.88380000000001</v>
+        <v>265.3202</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -2661,10 +2662,10 @@
         <v>500</v>
       </c>
       <c r="F99" s="2">
-        <v>270.0401</v>
+        <v>266.78339999999997</v>
       </c>
       <c r="G99" s="2">
-        <v>270.0401</v>
+        <v>266.78339999999997</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -2684,10 +2685,10 @@
         <v>500</v>
       </c>
       <c r="F100" s="2">
-        <v>256.96390000000002</v>
+        <v>255.6403</v>
       </c>
       <c r="G100" s="2">
-        <v>256.96390000000002</v>
+        <v>255.6403</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -2707,10 +2708,10 @@
         <v>500</v>
       </c>
       <c r="F101" s="2">
-        <v>294.83969999999999</v>
+        <v>292.33370000000002</v>
       </c>
       <c r="G101" s="2">
-        <v>294.83969999999999</v>
+        <v>292.33370000000002</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -2730,10 +2731,10 @@
         <v>500</v>
       </c>
       <c r="F102" s="2">
-        <v>304.30860000000001</v>
+        <v>301.78840000000002</v>
       </c>
       <c r="G102" s="2">
-        <v>304.30860000000001</v>
+        <v>301.78840000000002</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -2753,10 +2754,10 @@
         <v>500</v>
       </c>
       <c r="F103" s="2">
-        <v>259.66930000000002</v>
+        <v>258.5668</v>
       </c>
       <c r="G103" s="2">
-        <v>259.66930000000002</v>
+        <v>258.5668</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -2776,10 +2777,10 @@
         <v>500</v>
       </c>
       <c r="F104" s="2">
-        <v>274.09820000000002</v>
+        <v>271.73590000000002</v>
       </c>
       <c r="G104" s="2">
-        <v>274.09820000000002</v>
+        <v>271.73590000000002</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -2799,10 +2800,10 @@
         <v>500</v>
       </c>
       <c r="F105" s="2">
-        <v>275</v>
+        <v>272.8614</v>
       </c>
       <c r="G105" s="2">
-        <v>275</v>
+        <v>272.8614</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -2822,10 +2823,10 @@
         <v>500</v>
       </c>
       <c r="F106" s="2">
-        <v>178.50700000000001</v>
+        <v>176.6258</v>
       </c>
       <c r="G106" s="2">
-        <v>178.50700000000001</v>
+        <v>176.6258</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -2845,10 +2846,10 @@
         <v>500</v>
       </c>
       <c r="F107" s="2">
-        <v>218.63730000000001</v>
+        <v>216.80840000000001</v>
       </c>
       <c r="G107" s="2">
-        <v>218.63730000000001</v>
+        <v>216.80840000000001</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -2868,10 +2869,10 @@
         <v>500</v>
       </c>
       <c r="F108" s="2">
-        <v>182.5651</v>
+        <v>181.2406</v>
       </c>
       <c r="G108" s="2">
-        <v>182.5651</v>
+        <v>181.2406</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -2891,10 +2892,10 @@
         <v>500</v>
       </c>
       <c r="F109" s="2">
-        <v>234.86969999999999</v>
+        <v>233.6918</v>
       </c>
       <c r="G109" s="2">
-        <v>234.86969999999999</v>
+        <v>233.6918</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -2914,10 +2915,10 @@
         <v>500</v>
       </c>
       <c r="F110" s="2">
-        <v>257.41480000000001</v>
+        <v>254.965</v>
       </c>
       <c r="G110" s="2">
-        <v>257.41480000000001</v>
+        <v>254.965</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -2937,10 +2938,10 @@
         <v>500</v>
       </c>
       <c r="F111" s="2">
-        <v>249.74950000000001</v>
+        <v>247.4237</v>
       </c>
       <c r="G111" s="2">
-        <v>249.74950000000001</v>
+        <v>247.4237</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -2960,10 +2961,10 @@
         <v>500</v>
       </c>
       <c r="F112" s="2">
-        <v>250.2004</v>
+        <v>248.77440000000001</v>
       </c>
       <c r="G112" s="2">
-        <v>250.2004</v>
+        <v>248.77440000000001</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -2983,10 +2984,10 @@
         <v>500</v>
       </c>
       <c r="F113" s="2">
-        <v>192.0341</v>
+        <v>190.1326</v>
       </c>
       <c r="G113" s="2">
-        <v>192.0341</v>
+        <v>190.1326</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -3006,10 +3007,10 @@
         <v>500</v>
       </c>
       <c r="F114" s="2">
-        <v>186.6232</v>
+        <v>184.8424</v>
       </c>
       <c r="G114" s="2">
-        <v>186.6232</v>
+        <v>184.8424</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -3029,10 +3030,595 @@
         <v>500</v>
       </c>
       <c r="F115" s="2">
-        <v>218.63730000000001</v>
+        <v>216.58330000000001</v>
       </c>
       <c r="G115" s="2">
-        <v>218.63730000000001</v>
+        <v>216.58330000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED45577-3D4B-40F4-A0C2-230E521A7024}">
+  <dimension ref="A1:A114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A114" sqref="A1:A114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>173.024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>169.8724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>160.08000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>170.66030000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>186.86840000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>167.62129999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>116.52079999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>170.77289999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>169.98500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>70.034999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>158.39169999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>143.5343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>146.57329999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>143.19659999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>126.6508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>177.18860000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>132.95400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>180.11510000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>164.46969999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>171.5608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>170.5478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>168.4092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>173.4742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>173.69929999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>221.76089999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>147.02350000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>116.0705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>174.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>191.3707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>196.2106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>171.89840000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>194.18459999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>176.6258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>191.1456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>158.7294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>131.82839999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>200.37520000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>171.11060000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>199.47470000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>193.62180000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>181.2406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>187.20609999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>206.67830000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>193.84690000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>142.63380000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>190.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>168.6343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>166.4957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>164.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>167.28360000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>205.8904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>150.62530000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>197.56129999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>167.28360000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>196.99850000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>207.8039</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>167.1711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>165.82040000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>172.7989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>205.4402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>162.44370000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>210.7304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>213.6568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>172.57380000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>181.57830000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>151.7509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>185.74289999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>180.67779999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>142.18360000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>209.4922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>84.667299999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>159.51730000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>206.90350000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>177.52629999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>182.81639999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>263.51929999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>173.81190000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>221.98599999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>237.63130000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>168.74690000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>89.732399999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>190.1326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>137.2311</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>215.00749999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>202.85140000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>151.976</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>231.7784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>94.009500000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>168.1841</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>125.9755</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>163.45670000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>221.64830000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>265.3202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>266.78339999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>255.6403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>292.33370000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>301.78840000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>258.5668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>271.73590000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>272.8614</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>176.6258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>216.80840000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>181.2406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>233.6918</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>254.965</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>247.4237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>248.77440000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>190.1326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>184.8424</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>216.58330000000001</v>
       </c>
     </row>
   </sheetData>
